--- a/Running projects/Khaadi Kanteen F-6, Islamabad/VO/03- variation order for Exhaust Fans.xlsx
+++ b/Running projects/Khaadi Kanteen F-6, Islamabad/VO/03- variation order for Exhaust Fans.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20416"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{985FFDC2-F1ED-4625-A6D3-CB5D1D50A2E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1302B4FD-3C49-4513-AA5E-9C7660216EB4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Justification" sheetId="2" r:id="rId2"/>
+    <sheet name="Justification (2)" sheetId="3" r:id="rId2"/>
+    <sheet name="Justification" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$39</definedName>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="57">
   <si>
     <t>S. #</t>
   </si>
@@ -216,6 +217,36 @@
   </si>
   <si>
     <t xml:space="preserve"> 27'x 3'6"x 2'4" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exhuast Fan </t>
+  </si>
+  <si>
+    <t>Kitchen Hood</t>
+  </si>
+  <si>
+    <t>Split AC</t>
+  </si>
+  <si>
+    <t>Air Curtains</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>PES Remarks</t>
+  </si>
+  <si>
+    <t>Accepted</t>
+  </si>
+  <si>
+    <t>Part of BOQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KANTEEN VOS - Acknowledgement </t>
+  </si>
+  <si>
+    <t>Conditionally accepted, Split AC scope accepted, whereas Copper pipe, insulation, wire etc will be claimed as per BOQ rates</t>
   </si>
 </sst>
 </file>
@@ -502,6 +533,31 @@
     <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -514,14 +570,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -529,25 +579,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -738,6 +769,72 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1035456</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A5535A9-C558-43F1-B3DF-3C62E09B0455}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="38100" y="38100"/>
+          <a:ext cx="1578381" cy="676275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1126,8 +1223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A7:L38"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1149,10 +1246,10 @@
     <row r="8" spans="1:9" ht="10.9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:9" ht="10.9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:9" ht="22.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="36"/>
+      <c r="B10" s="45"/>
       <c r="I10" s="8">
         <v>45735</v>
       </c>
@@ -1172,17 +1269,17 @@
       <c r="B13" s="5"/>
     </row>
     <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
     </row>
     <row r="15" spans="1:9" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="15"/>
@@ -1196,30 +1293,30 @@
       <c r="I15" s="15"/>
     </row>
     <row r="16" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
     </row>
     <row r="17" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
     </row>
     <row r="18" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
@@ -1468,16 +1565,16 @@
       <c r="L24" s="31"/>
     </row>
     <row r="25" spans="1:12" s="24" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
       <c r="I25" s="29">
         <f>SUM(I19:I24)</f>
         <v>3306937.9583999999</v>
@@ -1572,11 +1669,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F9CD25E-9531-4BCE-BB82-63E9CA75E71A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9507DF8-27E2-494D-A577-DD407DD0972B}">
   <dimension ref="A6:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1591,234 +1688,337 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G6" s="51">
+      <c r="G6" s="44">
         <v>45736</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
     </row>
     <row r="11" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="43" t="s">
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="43"/>
-    </row>
-    <row r="12" spans="1:7" s="41" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="47" t="s">
+      <c r="G11" s="50"/>
+    </row>
+    <row r="12" spans="1:7" s="37" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="49"/>
-      <c r="F12" s="42" t="s">
+      <c r="E12" s="42"/>
+      <c r="F12" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="42" t="s">
+      <c r="G12" s="38" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="41" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="40">
+    <row r="13" spans="1:7" s="37" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="36">
         <v>10</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="40">
+      <c r="C13" s="36">
         <v>3900</v>
       </c>
-      <c r="D13" s="40" t="s">
+      <c r="D13" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="50"/>
-      <c r="F13" s="40">
+      <c r="E13" s="43"/>
+      <c r="F13" s="36">
         <v>4200</v>
       </c>
-      <c r="G13" s="40" t="s">
+      <c r="G13" s="36" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="41" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="40">
+    <row r="14" spans="1:7" s="37" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="36">
         <v>10</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="40">
+      <c r="C14" s="36">
         <v>5500</v>
       </c>
-      <c r="D14" s="40" t="s">
+      <c r="D14" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="50"/>
-      <c r="F14" s="40">
+      <c r="E14" s="43"/>
+      <c r="F14" s="36">
         <v>6750</v>
       </c>
-      <c r="G14" s="40" t="s">
+      <c r="G14" s="36" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="41" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="40">
+    <row r="15" spans="1:7" s="37" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="36">
         <v>10</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="40">
+      <c r="C15" s="36">
         <v>3500</v>
       </c>
-      <c r="D15" s="40" t="s">
+      <c r="D15" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="50"/>
-      <c r="F15" s="40">
+      <c r="E15" s="43"/>
+      <c r="F15" s="36">
         <v>3450</v>
       </c>
-      <c r="G15" s="40" t="s">
+      <c r="G15" s="36" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="41" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="40">
+    <row r="16" spans="1:7" s="37" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="36">
         <v>10</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="40">
+      <c r="C16" s="36">
         <v>4950</v>
       </c>
-      <c r="D16" s="40" t="s">
+      <c r="D16" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="50"/>
-      <c r="F16" s="40">
+      <c r="E16" s="43"/>
+      <c r="F16" s="36">
         <v>5760</v>
       </c>
-      <c r="G16" s="40" t="s">
+      <c r="G16" s="36" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A19" s="44" t="s">
+      <c r="A19" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
     </row>
     <row r="21" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="43" t="s">
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="G21" s="43"/>
-    </row>
-    <row r="22" spans="1:7" s="41" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="47" t="s">
+      <c r="G21" s="50"/>
+    </row>
+    <row r="22" spans="1:7" s="37" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="42" t="s">
+      <c r="B22" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="42" t="s">
+      <c r="C22" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="42" t="s">
+      <c r="D22" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="49"/>
-      <c r="F22" s="42" t="s">
+      <c r="E22" s="42"/>
+      <c r="F22" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="G22" s="42" t="s">
+      <c r="G22" s="38" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="41" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="40">
+    <row r="23" spans="1:7" s="37" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="36">
         <v>11</v>
       </c>
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="46" t="s">
+      <c r="D23" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="50"/>
-      <c r="F23" s="40" t="s">
+      <c r="E23" s="43"/>
+      <c r="F23" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="G23" s="46" t="s">
+      <c r="G23" s="39" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="41" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="40">
+    <row r="24" spans="1:7" s="37" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="36">
         <v>11</v>
       </c>
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="40" t="s">
+      <c r="C24" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="46" t="s">
+      <c r="D24" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="50"/>
-      <c r="F24" s="40" t="s">
+      <c r="E24" s="43"/>
+      <c r="F24" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="G24" s="46" t="s">
+      <c r="G24" s="39" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="A19:G19"/>
     <mergeCell ref="A21:D21"/>
     <mergeCell ref="F21:G21"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A19:G19"/>
+  </mergeCells>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F9CD25E-9531-4BCE-BB82-63E9CA75E71A}">
+  <dimension ref="A6:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="44">
+        <v>45743</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A9" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+    </row>
+    <row r="11" spans="1:4" s="37" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="37" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="36">
+        <v>1</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="37" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="36">
+        <v>2</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="37" customFormat="1" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="36">
+        <v>3</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="36"/>
+      <c r="D14" s="39" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="37" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="36">
+        <v>4</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A9:D9"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
